--- a/ADReads/ADPower.xlsx
+++ b/ADReads/ADPower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9615" windowHeight="12525" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9615" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,114 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sylvia.Cheng</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sylvia.Cheng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"…baseline was defined as usual and stable disease state and ability to tolerate &gt;7 day without topical AD treatments to intened sample sites and &gt;4 week off both oral antibiotics and corticosteroids." (Kong, et al. 2012)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sylvia.Cheng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"Flare was defined as acute exacerbation of disease on any skin region prior to initiation of intensified AD treatment and without restriction of usual treatments &gt;24 hour prior to sampling." (Kong et al. 2012)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sylvia.Cheng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"…defined as patients who reported use of topical medications in the previous 7 days and/or ingestion of oral antibiotics in the previous 4 wseek before skin sampling." (Kong, et al. 2012)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sylvia.Cheng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"Postflare was defined as 10-14 day after intensified AD treatment." (Kong, et al. 2012)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +292,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -609,25 +730,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -635,7 +746,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -973,44 +1105,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1704,7 +1829,7 @@
         <v>0.95479999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="12" customFormat="1">
+    <row r="45" spans="1:5" s="8" customFormat="1">
       <c r="A45" s="2">
         <v>71</v>
       </c>
@@ -1714,14 +1839,14 @@
       <c r="C45" s="2">
         <v>1</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>1</v>
       </c>
       <c r="E45" s="2">
         <v>0.95620000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="12" customFormat="1">
+    <row r="46" spans="1:5" s="8" customFormat="1">
       <c r="A46" s="2">
         <v>72</v>
       </c>
@@ -1731,14 +1856,14 @@
       <c r="C46" s="2">
         <v>1</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46" s="2">
         <v>0.9546</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="12" customFormat="1">
+    <row r="47" spans="1:5" s="8" customFormat="1">
       <c r="A47" s="2">
         <v>73</v>
       </c>
@@ -1748,14 +1873,14 @@
       <c r="C47" s="2">
         <v>1</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="E47" s="2">
         <v>0.95850000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="12" customFormat="1">
+    <row r="48" spans="1:5" s="8" customFormat="1">
       <c r="A48" s="2">
         <v>74</v>
       </c>
@@ -1765,7 +1890,7 @@
       <c r="C48" s="2">
         <v>1</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="2">
@@ -1782,7 +1907,7 @@
       <c r="C49" s="2">
         <v>1</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="E49" s="2">
@@ -1790,7 +1915,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="9">
+      <c r="A50" s="6">
         <v>76</v>
       </c>
       <c r="B50" s="2">
@@ -1807,7 +1932,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="9">
+      <c r="A51" s="6">
         <v>77</v>
       </c>
       <c r="B51" s="2">
@@ -1824,7 +1949,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="9">
+      <c r="A52" s="6">
         <v>78</v>
       </c>
       <c r="B52" s="2">
@@ -1841,7 +1966,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="9">
+      <c r="A53" s="6">
         <v>79</v>
       </c>
       <c r="B53" s="2">
@@ -1858,7 +1983,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="9">
+      <c r="A54" s="6">
         <v>80</v>
       </c>
       <c r="B54" s="2">
@@ -1875,7 +2000,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="10">
+      <c r="A55" s="7">
         <v>81</v>
       </c>
       <c r="B55" s="2">
@@ -1892,7 +2017,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="9">
+      <c r="A56" s="6">
         <v>82</v>
       </c>
       <c r="B56" s="2">
@@ -1909,7 +2034,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="10">
+      <c r="A57" s="7">
         <v>83</v>
       </c>
       <c r="B57" s="2">
@@ -1926,7 +2051,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="9">
+      <c r="A58" s="6">
         <v>84</v>
       </c>
       <c r="B58" s="2">
@@ -1943,7 +2068,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="10">
+      <c r="A59" s="7">
         <v>85</v>
       </c>
       <c r="B59" s="2">
@@ -1960,7 +2085,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="9">
+      <c r="A60" s="6">
         <v>86</v>
       </c>
       <c r="B60" s="2">
@@ -1977,7 +2102,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="10">
+      <c r="A61" s="7">
         <v>87</v>
       </c>
       <c r="B61" s="2">
@@ -1994,7 +2119,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="9">
+      <c r="A62" s="6">
         <v>88</v>
       </c>
       <c r="B62" s="2">
@@ -2011,7 +2136,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="10">
+      <c r="A63" s="7">
         <v>89</v>
       </c>
       <c r="B63" s="2">
@@ -2028,7 +2153,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="9">
+      <c r="A64" s="6">
         <v>90</v>
       </c>
       <c r="B64" s="2">
@@ -2045,7 +2170,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="10">
+      <c r="A65" s="7">
         <v>91</v>
       </c>
       <c r="B65" s="2">
@@ -2062,7 +2187,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="9">
+      <c r="A66" s="6">
         <v>92</v>
       </c>
       <c r="B66" s="2">
@@ -2079,7 +2204,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="10">
+      <c r="A67" s="7">
         <v>93</v>
       </c>
       <c r="B67" s="2">
@@ -2096,7 +2221,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="9">
+      <c r="A68" s="6">
         <v>94</v>
       </c>
       <c r="B68" s="2">
@@ -2113,7 +2238,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="10">
+      <c r="A69" s="7">
         <v>95</v>
       </c>
       <c r="B69" s="2">
@@ -2130,7 +2255,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="9">
+      <c r="A70" s="6">
         <v>96</v>
       </c>
       <c r="B70" s="2">
@@ -2147,7 +2272,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="10">
+      <c r="A71" s="7">
         <v>97</v>
       </c>
       <c r="B71" s="2">
@@ -2164,7 +2289,7 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="9">
+      <c r="A72" s="6">
         <v>98</v>
       </c>
       <c r="B72" s="2">
@@ -2181,16 +2306,16 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="10">
+      <c r="A73" s="7">
         <v>99</v>
       </c>
-      <c r="B73" s="6">
-        <v>1</v>
-      </c>
-      <c r="C73" s="6">
-        <v>1</v>
-      </c>
-      <c r="D73" s="6">
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5">
         <v>1</v>
       </c>
       <c r="E73" s="2">
@@ -2198,7 +2323,7 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="9">
+      <c r="A74" s="6">
         <v>100</v>
       </c>
       <c r="B74" s="2">
@@ -2215,22 +2340,23 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="C75" s="5"/>
+      <c r="C75" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2246,12 +2372,12 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -2280,7 +2406,7 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
       <c r="E3" s="2">
@@ -2297,7 +2423,7 @@
       <c r="C4" s="1">
         <v>0.78843074459567697</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="14">
         <v>0.16350000000000001</v>
       </c>
       <c r="E4" s="2">
@@ -2314,7 +2440,7 @@
       <c r="C5" s="2">
         <v>0.87009999999999998</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="14">
         <v>9.7100000000000006E-2</v>
       </c>
       <c r="E5" s="2">
@@ -2331,7 +2457,7 @@
       <c r="C6" s="2">
         <v>0.93720000000000003</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="14">
         <v>7.7899999999999997E-2</v>
       </c>
       <c r="E6" s="2">
@@ -2348,7 +2474,7 @@
       <c r="C7" s="2">
         <v>0.97540000000000004</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="14">
         <v>7.85E-2</v>
       </c>
       <c r="E7" s="2">
@@ -2365,7 +2491,7 @@
       <c r="C8" s="2">
         <v>0.99170000000000003</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="14">
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="E8" s="2">
@@ -2382,7 +2508,7 @@
       <c r="C9" s="2">
         <v>0.99860000000000004</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="14">
         <v>0.1017</v>
       </c>
       <c r="E9" s="2">
@@ -2399,7 +2525,7 @@
       <c r="C10" s="2">
         <v>0.99929999999999997</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="14">
         <v>0.1201</v>
       </c>
       <c r="E10" s="2">
@@ -2416,7 +2542,7 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="14">
         <v>0.1424</v>
       </c>
       <c r="E11" s="2">
@@ -2433,7 +2559,7 @@
       <c r="C12" s="2">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="14">
         <v>0.1605</v>
       </c>
       <c r="E12" s="2">
@@ -2450,7 +2576,9 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="17">
+        <v>0.191</v>
+      </c>
       <c r="E13" s="2">
         <v>0.107</v>
       </c>
@@ -2465,7 +2593,9 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="17">
+        <v>0.2145</v>
+      </c>
       <c r="E14" s="2">
         <v>0.1211</v>
       </c>
@@ -2480,7 +2610,9 @@
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="17">
+        <v>0.25740000000000002</v>
+      </c>
       <c r="E15" s="2">
         <v>0.13239999999999999</v>
       </c>
@@ -2495,7 +2627,9 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="17">
+        <v>0.28339999999999999</v>
+      </c>
       <c r="E16" s="2">
         <v>0.1399</v>
       </c>
@@ -2510,7 +2644,9 @@
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="17">
+        <v>0.32219999999999999</v>
+      </c>
       <c r="E17" s="2">
         <v>0.1527</v>
       </c>
@@ -2525,7 +2661,9 @@
       <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="17">
+        <v>0.36320000000000002</v>
+      </c>
       <c r="E18" s="2">
         <v>0.16259999999999999</v>
       </c>
@@ -2540,7 +2678,9 @@
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="17">
+        <v>0.39360000000000001</v>
+      </c>
       <c r="E19" s="2">
         <v>0.18140000000000001</v>
       </c>
@@ -2555,7 +2695,9 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="17">
+        <v>0.43480000000000002</v>
+      </c>
       <c r="E20" s="2">
         <v>0.1938</v>
       </c>
@@ -2570,7 +2712,9 @@
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="17">
+        <v>0.4713</v>
+      </c>
       <c r="E21" s="2">
         <v>0.20349999999999999</v>
       </c>
@@ -2585,7 +2729,9 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="17">
+        <v>0.50960000000000005</v>
+      </c>
       <c r="E22" s="2">
         <v>0.2271</v>
       </c>
@@ -2600,7 +2746,9 @@
       <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="17">
+        <v>0.54610000000000003</v>
+      </c>
       <c r="E23" s="2">
         <v>0.25230000000000002</v>
       </c>
@@ -2615,7 +2763,9 @@
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="17">
+        <v>0.58120000000000005</v>
+      </c>
       <c r="E24" s="2">
         <v>0.2581</v>
       </c>
@@ -2630,7 +2780,9 @@
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="17">
+        <v>0.61780000000000002</v>
+      </c>
       <c r="E25" s="2">
         <v>0.26200000000000001</v>
       </c>
@@ -2645,7 +2797,9 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="17">
+        <v>0.65169999999999995</v>
+      </c>
       <c r="E26" s="2">
         <v>0.28499999999999998</v>
       </c>
@@ -2660,7 +2814,9 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="17">
+        <v>0.68400000000000005</v>
+      </c>
       <c r="E27" s="2">
         <v>0.30609999999999998</v>
       </c>
@@ -2675,7 +2831,9 @@
       <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="17">
+        <v>0.70650000000000002</v>
+      </c>
       <c r="E28" s="2">
         <v>0.3226</v>
       </c>
@@ -2690,7 +2848,9 @@
       <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="17">
+        <v>0.73680000000000001</v>
+      </c>
       <c r="E29" s="2">
         <v>0.34260000000000002</v>
       </c>
@@ -2705,7 +2865,9 @@
       <c r="C30" s="2">
         <v>1</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="17">
+        <v>0.76190000000000002</v>
+      </c>
       <c r="E30" s="2">
         <v>0.34589999999999999</v>
       </c>
@@ -2720,7 +2882,9 @@
       <c r="C31" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="17">
+        <v>0.78759999999999997</v>
+      </c>
       <c r="E31" s="2">
         <v>0.3634</v>
       </c>
@@ -2735,51 +2899,77 @@
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="17">
+        <v>0.80769999999999997</v>
+      </c>
       <c r="E32" s="2">
         <v>0.38169999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="13" customFormat="1">
+    <row r="33" spans="1:5" s="9" customFormat="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="2">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20">
+        <v>0.82010000000000005</v>
+      </c>
       <c r="E33" s="2">
         <v>0.4032</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="13" customFormat="1">
+    <row r="34" spans="1:5" s="9" customFormat="1">
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="2">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0.84519999999999995</v>
+      </c>
       <c r="E34" s="2">
         <v>0.4128</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="13" customFormat="1">
+    <row r="35" spans="1:5" s="9" customFormat="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="2">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0.85950000000000004</v>
+      </c>
       <c r="E35" s="2">
         <v>0.43049999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="13" customFormat="1">
+    <row r="36" spans="1:5" s="9" customFormat="1">
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="2">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="20">
+        <v>0.87749999999999995</v>
+      </c>
       <c r="E36" s="2">
         <v>0.45669999999999999</v>
       </c>
@@ -2794,61 +2984,77 @@
       <c r="C37" s="2">
         <v>1</v>
       </c>
-      <c r="D37" s="4">
-        <v>0.97030000000000005</v>
+      <c r="D37" s="20">
+        <v>0.8891</v>
       </c>
       <c r="E37" s="2">
         <v>0.46910000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="14" customFormat="1">
+    <row r="38" spans="1:5" s="10" customFormat="1">
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="12">
         <v>0.97130000000000005</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0.8962</v>
+      </c>
       <c r="E38" s="2">
         <v>0.4783</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="14" customFormat="1">
+    <row r="39" spans="1:5" s="10" customFormat="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="12">
         <v>0.97799999999999998</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0.91049999999999998</v>
+      </c>
       <c r="E39" s="2">
         <v>0.50280000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="14" customFormat="1">
+    <row r="40" spans="1:5" s="10" customFormat="1">
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="12">
         <v>0.98250000000000004</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0.92420000000000002</v>
+      </c>
       <c r="E40" s="2">
         <v>0.51849999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="14" customFormat="1">
+    <row r="41" spans="1:5" s="10" customFormat="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="12">
         <v>0.98419999999999996</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0.92989999999999995</v>
+      </c>
       <c r="E41" s="2">
         <v>0.5272</v>
       </c>
@@ -2863,68 +3069,76 @@
       <c r="C42" s="2">
         <v>1</v>
       </c>
-      <c r="D42" s="4">
-        <v>0.98680000000000001</v>
+      <c r="D42" s="20">
+        <v>0.9365</v>
       </c>
       <c r="E42" s="2">
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="12" customFormat="1">
+    <row r="43" spans="1:5" s="8" customFormat="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="13">
         <v>0.99839999999999995</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="18">
-        <v>0.94669999999999999</v>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0.95340000000000003</v>
       </c>
       <c r="E43" s="2">
         <v>0.55210000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="12" customFormat="1">
+    <row r="44" spans="1:5" s="8" customFormat="1">
       <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="13">
         <v>0.998</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="18">
-        <v>0.95330000000000004</v>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0.95450000000000002</v>
       </c>
       <c r="E44" s="2">
         <v>0.57169999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="12" customFormat="1">
+    <row r="45" spans="1:5" s="8" customFormat="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="13">
         <v>0.998</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="18">
-        <v>0.95630000000000004</v>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0.95720000000000005</v>
       </c>
       <c r="E45" s="2">
         <v>0.58940000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="12" customFormat="1">
+    <row r="46" spans="1:5" s="8" customFormat="1">
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="13">
         <v>0.99950000000000006</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="18">
-        <v>0.96619999999999995</v>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="21">
+        <v>0.96289999999999998</v>
       </c>
       <c r="E46" s="2">
         <v>0.60109999999999997</v>
@@ -2940,53 +3154,77 @@
       <c r="C47" s="2">
         <v>1</v>
       </c>
-      <c r="D47" s="4">
-        <v>0.99460000000000004</v>
+      <c r="D47" s="21">
+        <v>0.97089999999999999</v>
       </c>
       <c r="E47" s="2">
         <v>0.61960000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="15" customFormat="1">
+    <row r="48" spans="1:5" s="11" customFormat="1">
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="4"/>
+      <c r="B48" s="23">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0.97270000000000001</v>
+      </c>
       <c r="E48" s="2">
         <v>0.62250000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="15" customFormat="1">
+    <row r="49" spans="1:5" s="11" customFormat="1">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="23">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0.97570000000000001</v>
+      </c>
       <c r="E49" s="2">
         <v>0.64239999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="15" customFormat="1">
+    <row r="50" spans="1:5" s="11" customFormat="1">
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="4"/>
+      <c r="B50" s="23">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0.98089999999999999</v>
+      </c>
       <c r="E50" s="2">
         <v>0.66469999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="15" customFormat="1">
+    <row r="51" spans="1:5" s="11" customFormat="1">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="4"/>
+      <c r="B51" s="23">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0.98240000000000005</v>
+      </c>
       <c r="E51" s="2">
         <v>0.66620000000000001</v>
       </c>
@@ -3001,53 +3239,77 @@
       <c r="C52" s="2">
         <v>1</v>
       </c>
-      <c r="D52" s="4">
-        <v>0.99729999999999996</v>
+      <c r="D52" s="21">
+        <v>0.9849</v>
       </c>
       <c r="E52" s="2">
         <v>0.68310000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="15" customFormat="1">
+    <row r="53" spans="1:5" s="11" customFormat="1">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="4"/>
+      <c r="B53" s="2">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.98570000000000002</v>
+      </c>
       <c r="E53" s="2">
         <v>0.69840000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="15" customFormat="1">
+    <row r="54" spans="1:5" s="11" customFormat="1">
       <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="4"/>
+      <c r="B54" s="2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.98839999999999995</v>
+      </c>
       <c r="E54" s="2">
         <v>0.70779999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="15" customFormat="1">
+    <row r="55" spans="1:5" s="11" customFormat="1">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.98970000000000002</v>
+      </c>
       <c r="E55" s="2">
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="15" customFormat="1">
+    <row r="56" spans="1:5" s="11" customFormat="1">
       <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="2">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.99080000000000001</v>
+      </c>
       <c r="E56" s="2">
         <v>0.71850000000000003</v>
       </c>
@@ -3062,53 +3324,77 @@
       <c r="C57" s="2">
         <v>1</v>
       </c>
-      <c r="D57" s="4">
-        <v>0.99919999999999998</v>
+      <c r="D57" s="3">
+        <v>0.99250000000000005</v>
       </c>
       <c r="E57" s="2">
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="15" customFormat="1">
+    <row r="58" spans="1:5" s="11" customFormat="1">
       <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="4"/>
+      <c r="B58" s="23">
+        <v>0.999</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.99250000000000005</v>
+      </c>
       <c r="E58" s="2">
         <v>0.75149999999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="15" customFormat="1">
+    <row r="59" spans="1:5" s="11" customFormat="1">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="23">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.99360000000000004</v>
+      </c>
       <c r="E59" s="2">
         <v>0.75190000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="15" customFormat="1">
+    <row r="60" spans="1:5" s="11" customFormat="1">
       <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="4"/>
+      <c r="B60" s="23">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.99550000000000005</v>
+      </c>
       <c r="E60" s="2">
         <v>0.76649999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="15" customFormat="1">
+    <row r="61" spans="1:5" s="11" customFormat="1">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="23">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.99690000000000001</v>
+      </c>
       <c r="E61" s="2">
         <v>0.78190000000000004</v>
       </c>
@@ -3123,53 +3409,77 @@
       <c r="C62" s="2">
         <v>1</v>
       </c>
-      <c r="D62" s="4">
-        <v>0.99919999999999998</v>
+      <c r="D62" s="3">
+        <v>0.99680000000000002</v>
       </c>
       <c r="E62" s="2">
         <v>0.79110000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="15" customFormat="1">
+    <row r="63" spans="1:5" s="11" customFormat="1">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="4"/>
+      <c r="B63" s="2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.99670000000000003</v>
+      </c>
       <c r="E63" s="2">
         <v>0.79479999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="15" customFormat="1">
+    <row r="64" spans="1:5" s="11" customFormat="1">
       <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="4"/>
+      <c r="B64" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.998</v>
+      </c>
       <c r="E64" s="2">
         <v>0.80300000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="15" customFormat="1">
+    <row r="65" spans="1:5" s="11" customFormat="1">
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.99750000000000005</v>
+      </c>
       <c r="E65" s="2">
         <v>0.81510000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="15" customFormat="1">
+    <row r="66" spans="1:5" s="11" customFormat="1">
       <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="4"/>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.99829999999999997</v>
+      </c>
       <c r="E66" s="2">
         <v>0.82569999999999999</v>
       </c>
@@ -3179,58 +3489,82 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
       </c>
-      <c r="D67" s="4">
-        <v>0.99980000000000002</v>
+      <c r="D67" s="3">
+        <v>0.99829999999999997</v>
       </c>
       <c r="E67" s="2">
         <v>0.82520000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="15" customFormat="1">
+    <row r="68" spans="1:5" s="11" customFormat="1">
       <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="4"/>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.99819999999999998</v>
+      </c>
       <c r="E68" s="2">
         <v>0.8357</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="15" customFormat="1">
+    <row r="69" spans="1:5" s="11" customFormat="1">
       <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="4"/>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.999</v>
+      </c>
       <c r="E69" s="2">
         <v>0.84460000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="15" customFormat="1">
+    <row r="70" spans="1:5" s="11" customFormat="1">
       <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="4"/>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.99909999999999999</v>
+      </c>
       <c r="E70" s="2">
         <v>0.84760000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="15" customFormat="1">
+    <row r="71" spans="1:5" s="11" customFormat="1">
       <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="4"/>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.99890000000000001</v>
+      </c>
       <c r="E71" s="2">
         <v>0.86119999999999997</v>
       </c>
@@ -3240,58 +3574,82 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
       </c>
-      <c r="D72" s="4">
-        <v>1</v>
+      <c r="D72" s="3">
+        <v>0.99919999999999998</v>
       </c>
       <c r="E72" s="2">
         <v>0.86939999999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="15" customFormat="1">
+    <row r="73" spans="1:5" s="11" customFormat="1">
       <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="4"/>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.99929999999999997</v>
+      </c>
       <c r="E73" s="2">
         <v>0.87490000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="15" customFormat="1">
+    <row r="74" spans="1:5" s="11" customFormat="1">
       <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="4"/>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.999</v>
+      </c>
       <c r="E74" s="2">
         <v>0.87160000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="15" customFormat="1">
+    <row r="75" spans="1:5" s="11" customFormat="1">
       <c r="A75" s="2">
         <v>73</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.99960000000000004</v>
+      </c>
       <c r="E75" s="2">
         <v>0.8871</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="15" customFormat="1">
+    <row r="76" spans="1:5" s="11" customFormat="1">
       <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="4"/>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.99929999999999997</v>
+      </c>
       <c r="E76" s="2">
         <v>0.89049999999999996</v>
       </c>
@@ -3306,11 +3664,626 @@
       <c r="C77" s="2">
         <v>1</v>
       </c>
-      <c r="D77" s="4">
-        <v>1</v>
+      <c r="D77" s="3">
+        <v>0.99950000000000006</v>
       </c>
       <c r="E77" s="2">
         <v>0.89459999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="D78" s="23">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E78" s="18">
+        <v>0.9042</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="23">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E79" s="18">
+        <v>0.90049999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
+        <v>78</v>
+      </c>
+      <c r="D80" s="23">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E80" s="18">
+        <v>0.9052</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="D81" s="23">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E81" s="18">
+        <v>0.91149999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2">
+        <v>80</v>
+      </c>
+      <c r="D82" s="23">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E82" s="18">
+        <v>0.91559999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2">
+        <v>81</v>
+      </c>
+      <c r="E83" s="18">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
+        <v>82</v>
+      </c>
+      <c r="E84" s="18">
+        <v>0.9234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2">
+        <v>83</v>
+      </c>
+      <c r="E85" s="18">
+        <v>0.92669999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="E86" s="18">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2">
+        <v>85</v>
+      </c>
+      <c r="E87" s="18">
+        <v>0.93510000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2">
+        <v>86</v>
+      </c>
+      <c r="E88" s="18">
+        <v>0.94450000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="E89" s="18">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="E90" s="18">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="E91" s="18">
+        <v>0.95450000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2">
+        <v>90</v>
+      </c>
+      <c r="E92" s="18">
+        <v>0.95030000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2">
+        <v>91</v>
+      </c>
+      <c r="E93" s="18">
+        <v>0.94730000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
+        <v>92</v>
+      </c>
+      <c r="E94" s="18">
+        <v>0.95650000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2">
+        <v>93</v>
+      </c>
+      <c r="E95" s="18">
+        <v>0.9556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
+        <v>94</v>
+      </c>
+      <c r="E96" s="18">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
+        <v>95</v>
+      </c>
+      <c r="E97" s="18">
+        <v>0.96209999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2">
+        <v>96</v>
+      </c>
+      <c r="E98" s="18">
+        <v>0.96330000000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2">
+        <v>97</v>
+      </c>
+      <c r="E99" s="18">
+        <v>0.96619999999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2">
+        <v>98</v>
+      </c>
+      <c r="E100" s="18">
+        <v>0.96730000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2">
+        <v>99</v>
+      </c>
+      <c r="E101" s="18">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2">
+        <v>100</v>
+      </c>
+      <c r="E102" s="18">
+        <v>0.97189999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2">
+        <v>101</v>
+      </c>
+      <c r="E103" s="19">
+        <v>0.97219999999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2">
+        <v>102</v>
+      </c>
+      <c r="E104" s="19">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2">
+        <v>103</v>
+      </c>
+      <c r="E105" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2">
+        <v>104</v>
+      </c>
+      <c r="E106" s="19">
+        <v>0.98119999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2">
+        <v>105</v>
+      </c>
+      <c r="E107" s="19">
+        <v>0.98009999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2">
+        <v>106</v>
+      </c>
+      <c r="E108" s="19">
+        <v>0.98029999999999995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2">
+        <v>107</v>
+      </c>
+      <c r="E109" s="19">
+        <v>0.98150000000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2">
+        <v>108</v>
+      </c>
+      <c r="E110" s="19">
+        <v>0.98229999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2">
+        <v>109</v>
+      </c>
+      <c r="E111" s="19">
+        <v>0.98480000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2">
+        <v>110</v>
+      </c>
+      <c r="E112" s="19">
+        <v>0.98450000000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2">
+        <v>111</v>
+      </c>
+      <c r="E113" s="19">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2">
+        <v>112</v>
+      </c>
+      <c r="E114" s="19">
+        <v>0.98609999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2">
+        <v>113</v>
+      </c>
+      <c r="E115" s="19">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2">
+        <v>114</v>
+      </c>
+      <c r="E116" s="19">
+        <v>0.98729999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2">
+        <v>115</v>
+      </c>
+      <c r="E117" s="19">
+        <v>0.9879</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2">
+        <v>116</v>
+      </c>
+      <c r="E118" s="19">
+        <v>0.98980000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2">
+        <v>117</v>
+      </c>
+      <c r="E119" s="19">
+        <v>0.98870000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2">
+        <v>118</v>
+      </c>
+      <c r="E120" s="19">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2">
+        <v>119</v>
+      </c>
+      <c r="E121" s="19">
+        <v>0.99050000000000005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>120</v>
+      </c>
+      <c r="E122" s="19">
+        <v>0.99139999999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>121</v>
+      </c>
+      <c r="E123" s="22">
+        <v>0.99229999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>122</v>
+      </c>
+      <c r="E124" s="22">
+        <v>0.99390000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>123</v>
+      </c>
+      <c r="E125" s="22">
+        <v>0.99270000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>124</v>
+      </c>
+      <c r="E126" s="22">
+        <v>0.99480000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>125</v>
+      </c>
+      <c r="E127" s="22">
+        <v>0.99390000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>126</v>
+      </c>
+      <c r="E128" s="22">
+        <v>0.99439999999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>127</v>
+      </c>
+      <c r="E129" s="22">
+        <v>0.99460000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>128</v>
+      </c>
+      <c r="E130" s="22">
+        <v>0.99439999999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>129</v>
+      </c>
+      <c r="E131" s="22">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>130</v>
+      </c>
+      <c r="E132" s="22">
+        <v>0.99490000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>131</v>
+      </c>
+      <c r="E133" s="23">
+        <v>0.99719999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>132</v>
+      </c>
+      <c r="E134" s="23">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>133</v>
+      </c>
+      <c r="E135" s="23">
+        <v>0.99660000000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>134</v>
+      </c>
+      <c r="E136" s="23">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>135</v>
+      </c>
+      <c r="E137" s="23">
+        <v>0.99560000000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>136</v>
+      </c>
+      <c r="E138" s="23">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>137</v>
+      </c>
+      <c r="E139" s="23">
+        <v>0.99750000000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>138</v>
+      </c>
+      <c r="E140" s="23">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>139</v>
+      </c>
+      <c r="E141" s="23">
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>140</v>
+      </c>
+      <c r="E142" s="23">
+        <v>0.99739999999999995</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>141</v>
+      </c>
+      <c r="E143" s="23">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>142</v>
+      </c>
+      <c r="E144" s="23">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>143</v>
+      </c>
+      <c r="E145" s="23">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>144</v>
+      </c>
+      <c r="E146" s="23">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>145</v>
+      </c>
+      <c r="E147" s="23">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>146</v>
+      </c>
+      <c r="E148" s="23">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>147</v>
+      </c>
+      <c r="E149" s="23">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>148</v>
+      </c>
+      <c r="E150" s="23">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>149</v>
+      </c>
+      <c r="E151" s="23">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>150</v>
+      </c>
+      <c r="E152" s="23">
+        <v>0.99870000000000003</v>
       </c>
     </row>
   </sheetData>
